--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/NADIA CROWLEY.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/NADIA CROWLEY.xlsx
@@ -127,15 +127,6 @@
   </x:si>
   <x:si>
     <x:t>CONSULTA COTIZADOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Contac Center Renault Mexico  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>RMEX2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RMEX1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -792,7 +783,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J8"/>
+  <x:dimension ref="A1:J6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -889,62 +880,6 @@
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="3"/>
     </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F7" s="4">
-        <x:v>45132</x:v>
-      </x:c>
-      <x:c r="G7" s="4">
-        <x:v>45342</x:v>
-      </x:c>
-      <x:c r="H7" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I7" s="3"/>
-      <x:c r="J7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F8" s="4">
-        <x:v>45132</x:v>
-      </x:c>
-      <x:c r="G8" s="4">
-        <x:v>45342</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I8" s="3"/>
-      <x:c r="J8" s="3"/>
-    </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:K5"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
